--- a/Data/Bilançolar/CELHA.xlsx
+++ b/Data/Bilançolar/CELHA.xlsx
@@ -15430,7 +15430,7 @@
         <v>66668880</v>
       </c>
       <c r="C86" t="n">
-        <v>28677028</v>
+        <v>28677029</v>
       </c>
       <c r="D86" t="n">
         <v>125183578</v>
@@ -15955,7 +15955,7 @@
         <v>76762092</v>
       </c>
       <c r="C89" t="n">
-        <v>43310438</v>
+        <v>43310439</v>
       </c>
       <c r="D89" t="n">
         <v>31523969</v>
@@ -17005,7 +17005,7 @@
         <v>76762092</v>
       </c>
       <c r="C95" t="n">
-        <v>43310438</v>
+        <v>43310439</v>
       </c>
       <c r="D95" t="n">
         <v>32836467</v>
@@ -17705,7 +17705,7 @@
         <v>48438727</v>
       </c>
       <c r="C99" t="n">
-        <v>30632424</v>
+        <v>30632425</v>
       </c>
       <c r="D99" t="n">
         <v>10202725</v>
@@ -18580,7 +18580,7 @@
         <v>52399865</v>
       </c>
       <c r="C104" t="n">
-        <v>24734082</v>
+        <v>24734083</v>
       </c>
       <c r="D104" t="n">
         <v>7572680</v>
@@ -19105,7 +19105,7 @@
         <v>52399865</v>
       </c>
       <c r="C107" t="n">
-        <v>24734082</v>
+        <v>24734083</v>
       </c>
       <c r="D107" t="n">
         <v>7572680</v>
@@ -19630,7 +19630,7 @@
         <v>52399865</v>
       </c>
       <c r="C110" t="n">
-        <v>24734082</v>
+        <v>24734083</v>
       </c>
       <c r="D110" t="n">
         <v>7572680</v>
